--- a/Table/Table_xls/z战斗AI/AI总表.xlsx
+++ b/Table/Table_xls/z战斗AI/AI总表.xlsx
@@ -4120,10 +4120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -4236,29 +4236,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4266,60 +4244,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4335,7 +4259,51 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4349,23 +4317,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4381,6 +4374,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4509,85 +4509,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4605,13 +4533,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4623,31 +4569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4659,7 +4581,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4677,7 +4629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4689,7 +4653,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4779,15 +4779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4799,6 +4790,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4833,17 +4839,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4860,8 +4860,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4881,148 +4881,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -6039,11 +6039,11 @@
   <dimension ref="A1:J1133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H27" sqref="H27:H62"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
